--- a/dalrat/달랏마트 코드/정산 관련 코드/4월/amounts_summary.xlsx
+++ b/dalrat/달랏마트 코드/정산 관련 코드/4월/amounts_summary.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80100400</v>
+        <v>87402000</v>
       </c>
     </row>
     <row r="3">
@@ -463,27 +463,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76699750</v>
+        <v>81377650</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>rung</t>
+          <t>none</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44063500</v>
+        <v>918050</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>rung</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>46752300</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>tip</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>64384150</v>
+      <c r="B6" t="n">
+        <v>71912951</v>
       </c>
     </row>
   </sheetData>
@@ -497,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B235"/>
+  <dimension ref="A1:B273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,2340 +530,2720 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1_ 88마트 _R</t>
+          <t xml:space="preserve">	1_ 농림상사 _H</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4162500</v>
+        <v>380600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1_ GM마트 _H</t>
+          <t xml:space="preserve">	1_ 마낫포차나 수유점 _F</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123200</v>
+        <v>88000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1_ Hur Ye Ji _F</t>
+          <t xml:space="preserve">	1_ 알로이 _H</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57500</v>
+        <v>172000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1_ KING PETC _T</t>
+          <t xml:space="preserve">	1_아시아마트하망동 _H</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3449100</v>
+        <v>-46000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>1_ Lee sang _F</t>
+          <t xml:space="preserve">	JING _F</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179700</v>
+        <v>1704000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>1_ Phen _F</t>
+          <t xml:space="preserve">	Kehasathan Daranporn _T</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500000</v>
+        <v>169600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>1_ Tongyai _F</t>
+          <t xml:space="preserve">	Muntana _R</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3583600</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>1_ bukjeong _H</t>
+          <t xml:space="preserve">	NamNam _R</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>753100</v>
+        <v>15700</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>1_ kruda lad _R</t>
+          <t xml:space="preserve">	PIPITSALA _F</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>467400</v>
+        <v>117000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>1_ 계절곳간 _H</t>
+          <t xml:space="preserve">	Palita _T</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67000</v>
+        <v>83400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>1_ 그린타이 _T</t>
+          <t xml:space="preserve">	Pornpawee _F</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2725600</v>
+        <v>65900</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>1_ 냠냠 무카타 _T</t>
+          <t xml:space="preserve">	WIKANDA _F</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>688600</v>
+        <v>199000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>1_ 농림상사 _H</t>
+          <t xml:space="preserve">	mina _F</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1741700</v>
+        <v>53600</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>1_ 더챰타이 _R</t>
+          <t xml:space="preserve">	룽태국마트 _R</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>670400</v>
+        <v>437400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>1_ 르안타이 _F</t>
+          <t xml:space="preserve">	마하차이 _H</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183600</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>1_ 마낫포차나 수유점 _F</t>
+          <t xml:space="preserve">	밍 _R</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1392700</v>
+        <v>228000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>1_ 메콩강PHO _H</t>
+          <t xml:space="preserve">	안니 _T</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>133500</v>
+        <v>142000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>1_ 반미진 _H</t>
+          <t xml:space="preserve">	안야마니 _N</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117000</v>
+        <v>34300</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>1_ 반짠 _H</t>
+          <t>1_ 88마트 _R</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102600</v>
+        <v>4545600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>1_ 부기타이 _H</t>
+          <t>1_ GM마트 _H</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>582600</v>
+        <v>123200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>1_ 북정아시아마트 _H</t>
+          <t>1_ Hur Ye Ji _F</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4027400</v>
+        <v>57500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>1_ 붐빔 _F</t>
+          <t>1_ KING PETC _T</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159000</v>
+        <v>3449100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>1_ 빠쏘앱샙 _F</t>
+          <t>1_ Lee sang _F</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1276050</v>
+        <v>179700</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1_ 사야암타이 _T</t>
+          <t>1_ Phen _F</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>622300</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1_ 사왓디타이마트고양 _H</t>
+          <t>1_ Tongyai _F</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1521400</v>
+        <v>3583600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>1_ 선정마트 _H</t>
+          <t>1_ bukjeong _H</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>433300</v>
+        <v>753100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>1_ 소미 무카타 _F</t>
+          <t>1_ kruda lad _R</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2626550</v>
+        <v>467400</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>1_ 손인석 _F</t>
+          <t>1_ 계절곳간 _H</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1280500</v>
+        <v>67000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>1_ 시암아시아마트 _F</t>
+          <t>1_ 그린타이 _T</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>354800</v>
+        <v>2725600</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>1_ 신세계빌 _H</t>
+          <t>1_ 냠냠 무카타 _T</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2189500</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>1_ 씨암타이스토리 _H</t>
+          <t>1_ 농림상사 _H</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>360200</v>
+        <v>1900700</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>1_ 아러이타이수원 _R</t>
+          <t>1_ 더챰타이 _R</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>696250</v>
+        <v>670400</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>1_ 아시아마트외동 _H</t>
+          <t>1_ 르안타이 _F</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>773250</v>
+        <v>183600</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>1_ 아시아푸드마트 _H</t>
+          <t>1_ 마낫포차나 수유점 _F</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6369800</v>
+        <v>1392700</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>1_ 안남 _H</t>
+          <t>1_ 메콩강PHO _H</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>432400</v>
+        <v>133500</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>1_ 알로이 _H</t>
+          <t>1_ 반미진 _H</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718900</v>
+        <v>117000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>1_ 앙산아시아마트 _H</t>
+          <t>1_ 반짠 _H</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1498100</v>
+        <v>102600</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>1_ 엄지마트 _H</t>
+          <t>1_ 부기타이 _H</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4769500</v>
+        <v>582600</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>1_ 에스제이씨푸드 _H</t>
+          <t>1_ 북정아시아마트 _H</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2880000</v>
+        <v>4027400</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>1_ 엠타이 _T</t>
+          <t>1_ 붐빔 _F</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>156000</v>
+        <v>159000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>1_ 연육yon _F</t>
+          <t>1_ 빠쏘앱샙 _F</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2204300</v>
+        <v>1580550</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>1_ 요고웰니스카페 _F</t>
+          <t>1_ 사야암타이 _T</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66750</v>
+        <v>622300</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>1_ 우라이완 _R</t>
+          <t>1_ 사왓디타이마트고양 _H</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>765000</v>
+        <v>1521400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>1_ 월드마트 _H</t>
+          <t>1_ 선정마트 _H</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4095000</v>
+        <v>433300</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>1_ 위아더월드 _H</t>
+          <t>1_ 소미 무카타 _F</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241750</v>
+        <v>2626550</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>1_ 이나인할랄마트 _H</t>
+          <t>1_ 손인석 _F</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>292800</v>
+        <v>1280500</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>1_ 이수진 _T</t>
+          <t>1_ 시암아시아마트 _F</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>8729000</v>
+        <v>354800</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>1_ 조승호룽쏨분 _H</t>
+          <t>1_ 신세계빌 _H</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>449550</v>
+        <v>2189500</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>1_ 창타이누들 _H</t>
+          <t>1_ 씨암타이스토리 _H</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1314300</v>
+        <v>420400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>1_ 카오산 _H</t>
+          <t>1_ 아러이타이수원 _R</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>734200</v>
+        <v>696250</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>1_ 카오산 원주 _F</t>
+          <t>1_ 아시아마트외동 _H</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>652100</v>
+        <v>831750</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>1_ 카오산태국쌀국수 _R</t>
+          <t>1_ 아시아푸드마트 _H</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>941150</v>
+        <v>6369800</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>1_ 카오카무 _H</t>
+          <t>1_ 안남 _H</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>129800</v>
+        <v>432400</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>1_ 코어타이인디 _H</t>
+          <t>1_ 알로이 _H</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>833800</v>
+        <v>718900</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>1_ 쿤매래누 _R</t>
+          <t>1_ 앙산아시아마트 _H</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>265400</v>
+        <v>1498100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>1_ 쿨마트 _H</t>
+          <t>1_ 엄지마트 _H</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>589500</v>
+        <v>5636500</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>1_ 크루어깐앵ครั _T</t>
+          <t>1_ 에스제이씨푸드 _H</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>157350</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>1_ 킹마트 _H</t>
+          <t>1_ 엠타이 _T</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2681200</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>1_ 타이24 _F</t>
+          <t>1_ 연육yon _F</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>476600</v>
+        <v>5079500</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>1_ 타이996 _R</t>
+          <t>1_ 요고웰니스카페 _F</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>237600</v>
+        <v>66750</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>1_ 타이농카이 _R</t>
+          <t>1_ 우라이완 _R</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>261000</v>
+        <v>765000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>1_ 타이러브샵 _T</t>
+          <t>1_ 월드마트 _H</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>15164500</v>
+        <v>4095000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>1_ 타이마트십정동 _T</t>
+          <t>1_ 위아더월드 _H</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>315000</v>
+        <v>241750</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>1_ 타이우던마트 _F</t>
+          <t>1_ 이나인할랄마트 _H</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>10510300</v>
+        <v>292800</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>1_ 타이타이 _R</t>
+          <t>1_ 이수진 _T</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>246750</v>
+        <v>8729000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>1_ 탄탄로직마트 _R</t>
+          <t>1_ 조승호룽쏨분 _H</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>481000</v>
+        <v>479550</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>1_ 태국 먹거리 _R</t>
+          <t>1_ 주식회사 건국 _H</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>513000</v>
+        <v>411500</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>1_ 태국마트 _R</t>
+          <t>1_ 창타이누들 _H</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2096800</v>
+        <v>1451300</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>1_ 파오퐁 _T</t>
+          <t>1_ 카오산 _H</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>367600</v>
+        <v>734200</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>1_ 풍산아시아마트 _R</t>
+          <t>1_ 카오산 원주 _F</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>374500</v>
+        <v>652100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>1_ 프렌즈마트 _H</t>
+          <t>1_ 카오산태국쌀국수 _R</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>266300</v>
+        <v>941150</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>1_ 피셋 _H</t>
+          <t>1_ 카오카무 _H</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>854200</v>
+        <v>129800</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>1_ 할머니 태국식당 _T</t>
+          <t>1_ 코어타이인디 _H</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>120000</v>
+        <v>833800</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>1_Asia mart Manseon _사 _F</t>
+          <t>1_ 쿤매래누 _R</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>758600</v>
+        <v>265400</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>1_CU 홍성대학원룸점 _H</t>
+          <t>1_ 쿨마트 _H</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4002600</v>
+        <v>589500</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>1_Hansa Thai 무까타 _F</t>
+          <t>1_ 크루어깐앵ครั _T</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>188800</v>
+        <v>157350</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>1_JINA MART _사 _R</t>
+          <t>1_ 킹마트 _H</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>368500</v>
+        <v>2681200</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>1_Kasalong _T</t>
+          <t>1_ 타이24 _F</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>150000</v>
+        <v>476600</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>1_난 타이 마트 _F</t>
+          <t>1_ 타이996 _R</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>9334700</v>
+        <v>237600</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>1_낸나연샵 _T</t>
+          <t>1_ 타이농카이 _R</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>686500</v>
+        <v>261000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>1_냉천아시아마트 _H</t>
+          <t>1_ 타이러브샵 _T</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>10933800</v>
+        <v>20603700</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>1_뉴행복한고기마을 _H</t>
+          <t>1_ 타이마트십정동 _T</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>451000</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>1_능두네고양점 _H</t>
+          <t>1_ 타이우던마트 _F</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1893700</v>
+        <v>10510300</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>1_능두네김포운양점 _H</t>
+          <t>1_ 타이타이 _R</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1060000</v>
+        <v>246750</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>1_띵동마트 _R</t>
+          <t>1_ 탄탄로직마트 _R</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>970050</v>
+        <v>481000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>1_란나무까타 의정부 _사 _F</t>
+          <t>1_ 태국 먹거리 _R</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>808900</v>
+        <v>513000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>1_바나나리프 _R</t>
+          <t>1_ 태국마트 _R</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>434700</v>
+        <v>2860800</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>1_사 더트리치앙마이 _F</t>
+          <t>1_ 파오퐁 _T</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1057000</v>
+        <v>367600</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>1_시롬타이 _사 _R</t>
+          <t>1_ 풍산아시아마트 _R</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>464650</v>
+        <v>374500</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>1_아시아마트 우박길 _H</t>
+          <t>1_ 프렌즈마트 _H</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2523600</v>
+        <v>266300</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>1_아시아마트하망동 _H</t>
+          <t>1_ 피셋 _H</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>136000</v>
+        <v>854200</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>1_웰컴타이_평택고덕점 _F</t>
+          <t>1_ 할머니 태국식당 _T</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1365550</v>
+        <v>215200</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>1_유한회사 민식품 _H</t>
+          <t>1_Asia mart Manseon _사 _F</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>286500</v>
+        <v>758600</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>1_진평아시아마트 _F</t>
+          <t>1_CU 홍성대학원룸점 _H</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>985500</v>
+        <v>4628600</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>1_케이쏨차이 _H</t>
+          <t>1_Hansa Thai 무까타 _F</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>297600</v>
+        <v>188800</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>1_크루아제꿍 _T</t>
+          <t>1_JINA MART _사 _R</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1678000</v>
+        <v>368500</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>1_크루아타이 _R</t>
+          <t>1_Kasalong _T</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>68700</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>1_크루아타이깐엥_삼호동 _H</t>
+          <t>1_난 타이 마트 _F</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>875700</v>
+        <v>9877900</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>1_크루아타이깐엥_진장동 _H</t>
+          <t>1_낸나연샵 _T</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>745900</v>
+        <v>921700</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>1_킹무까타 _H</t>
+          <t>1_냉천아시아마트 _H</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1186000</v>
+        <v>10933800</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>1_타이피농 _T</t>
+          <t>1_뉴행복한고기마을 _H</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>308000</v>
+        <v>451000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>1_태평 _H</t>
+          <t>1_능두네고양점 _H</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>690800</v>
+        <v>1893700</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>1_티케이수끼왜관 사 _F</t>
+          <t>1_능두네김포운양점 _H</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>184000</v>
+        <v>1060000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>1_호원코퍼레이션 _H</t>
+          <t>1_띵동마트 _R</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1704800</v>
+        <v>970050</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>1_히아웰 _F</t>
+          <t>1_란나무까타 의정부 _사 _F</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>95200</v>
+        <v>808900</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>AJJIMA _F</t>
+          <t>1_바나나리프 _R</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>186700</v>
+        <v>434700</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Apisak tay _F</t>
+          <t>1_사 더트리치앙마이 _F</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>50600</v>
+        <v>1057000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Arrunnee Khansri _R</t>
+          <t>1_시롬타이 _사 _R</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>120000</v>
+        <v>464650</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Bencha _F</t>
+          <t>1_아시아마트 우박길 _H</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>142000</v>
+        <v>2523600</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Bora shop _F</t>
+          <t>1_아시아마트하망동 _H</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>107600</v>
+        <v>182000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Chada Lak _F</t>
+          <t>1_웰컴타이_평택고덕점 _F</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>746500</v>
+        <v>1365550</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>DT _T</t>
+          <t>1_유한회사 민식품 _H</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>60900</v>
+        <v>286500</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Daruwan _F</t>
+          <t>1_진평아시아마트 _F</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>778000</v>
+        <v>1368500</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>F Tongyai _F</t>
+          <t>1_케이쏨차이 _H</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2106400</v>
+        <v>297600</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Filmmy _R</t>
+          <t>1_크루아제꿍 _T</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>618800</v>
+        <v>1678000</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Fluke _F</t>
+          <t>1_크루아타이 _R</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>69300</v>
+        <v>68700</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Gini _T</t>
+          <t>1_크루아타이깐엥_삼호동 _H</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>58600</v>
+        <v>875700</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>JING _F</t>
+          <t>1_크루아타이깐엥_진장동 _H</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4829500</v>
+        <v>745900</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Janny알로이방 _T</t>
+          <t>1_킹무까타 _H</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>99200</v>
+        <v>1186000</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Jarunya ka _T</t>
+          <t>1_타이피농 _T</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>702850</v>
+        <v>308000</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Jirayut _R</t>
+          <t>1_태평 _H</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>454700</v>
+        <v>690800</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>KAMALASK _R</t>
+          <t>1_티케이수끼왜관 사 _F</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>4027500</v>
+        <v>184000</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>KHUNAROOP _T</t>
+          <t>1_호원코퍼레이션 _H</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>45250</v>
+        <v>1969600</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Kannika Yo _T</t>
+          <t>1_히아웰 _F</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>58500</v>
+        <v>95200</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Kehasathan Daranporn _T</t>
+          <t>AJJIMA _F</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>5497650</v>
+        <v>186700</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Khemchira _T</t>
+          <t>Amonrat Buala</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>364100</v>
+        <v>322700</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Korranis p _T</t>
+          <t>Apisak tay _F</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>25850</v>
+        <v>50600</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Kuntiwong _F</t>
+          <t>Arrunnee Khansri _R</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>52600</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Lalita Pan _T</t>
+          <t>Bencha _F</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>213700</v>
+        <v>142000</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>MAYOE CHAR _T</t>
+          <t>Bora shop _F</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>161600</v>
+        <v>107600</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Mod _R</t>
+          <t>Chada Lak _F</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>481450</v>
+        <v>746500</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Muntana _R</t>
+          <t>Cheer Cheer</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>344700</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>NamNam _R</t>
+          <t>Choi Joong _T</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2667300</v>
+        <v>284000</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Namnueng _F</t>
+          <t>DT _T</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>621200</v>
+        <v>60900</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Nana _F</t>
+          <t>Daruwan _F</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>79800</v>
+        <v>778000</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>OUR마트 _H</t>
+          <t>F Pairin Thonchauy</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>86400</v>
+        <v>87500</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Onouma _F</t>
+          <t>F Tongyai _F</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>182600</v>
+        <v>2106400</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>PIPITSALA _F</t>
+          <t>F 다진타이마트</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>6723450</v>
+        <v>211000</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>PITSANA _F</t>
+          <t>Filmmy _R</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>157300</v>
+        <v>618800</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Pai clash _T</t>
+          <t>Fluke _F</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>288850</v>
+        <v>69300</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Palita _T</t>
+          <t>Gini _T</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>11477450</v>
+        <v>58600</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Patama see _T</t>
+          <t>H bukjeong</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>51200</v>
+        <v>-25000</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Patcharapo _T</t>
+          <t>H 농림상사</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>92200</v>
+        <v>681200</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Pornpawee _F</t>
+          <t>H 마하차이</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>327950</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Reamta Sopajon _T</t>
+          <t>JING _F</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>83900</v>
+        <v>4829500</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>SAIYAKIT Y _T</t>
+          <t>Janny알로이방 _T</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>52450</v>
+        <v>99200</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>SARAWUT _T</t>
+          <t>Jarunya ka _T</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>102000</v>
+        <v>702850</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Sanea Tamo _F</t>
+          <t>Jirayut _R</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>168600</v>
+        <v>454700</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Sarocha Ph _T</t>
+          <t>KAMALASK _R</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>77900</v>
+        <v>4082400</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Sawitree _T</t>
+          <t>KHUNAROOP _T</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>168800</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Sirirat _F</t>
+          <t>Kannika Yo _T</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>650100</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Surakarn _F</t>
+          <t>Kehasathan Daranporn _T</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>19300</v>
+        <v>5807650</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Sutin Se _T</t>
+          <t>Khemchira _T</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>33900</v>
+        <v>364100</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Sutthita _F</t>
+          <t>Kitiya L</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>891400</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>TUEKRUEA ARUNEE _F</t>
+          <t>Korranis p _T</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>7700</v>
+        <v>25850</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>TUEKRUEA ARUNEE _N</t>
+          <t>Kuntiwong _F</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>23000</v>
+        <v>52600</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Toey _T</t>
+          <t>Lalita Pan _T</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>224800</v>
+        <v>213700</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Venus _F</t>
+          <t>MAYOE CHAR _T</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>90200</v>
+        <v>161600</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>WIKANDA _F</t>
+          <t>Mod _R</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1499600</v>
+        <v>481450</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Wadsana Karin _T</t>
+          <t>Muntana _R</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>220800</v>
+        <v>344700</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Wanida _F</t>
+          <t>NIPAPORN _T</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>299000</v>
+        <v>247300</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>YOK KUNG _F</t>
+          <t>NamNam _R</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>542800</v>
+        <v>2769100</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Yaowalak _R</t>
+          <t>Namnueng _F</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>50400</v>
+        <v>621200</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Yu _F</t>
+          <t>Nana _F</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2133500</v>
+        <v>79800</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>fang _F</t>
+          <t>Nano _T</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>157150</v>
+        <v>247600</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>justfortha 저스트폴타이 _H</t>
+          <t>OUR마트 _H</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>542850</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>kittiya _F</t>
+          <t>Onouma _F</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1269200</v>
+        <v>182600</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>lina _F</t>
+          <t>PIPITSALA _F</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>199200</v>
+        <v>6910250</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>mina _F</t>
+          <t>PITSANA _F</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1168200</v>
+        <v>157300</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>monckin th _T</t>
+          <t>Pai clash _T</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>302700</v>
+        <v>288850</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>party _F</t>
+          <t>Palita _T</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>34000</v>
+        <v>11494550</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>phuthai _T</t>
+          <t>Patama see _T</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>701700</v>
+        <v>51200</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>sinsin _R</t>
+          <t>Patcharapo _T</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>156000</v>
+        <v>92200</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>tiw _T</t>
+          <t>Pornpawee _F</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>116500</v>
+        <v>327950</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>wikky ma _F</t>
+          <t>R 타이농카이</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>125800</v>
+        <v>558100</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>พัชรา _T</t>
+          <t>Reamta Sopajon _T</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>121600</v>
+        <v>83900</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>김완섭 _F</t>
+          <t>SAIYAKIT Y _T</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>346000</v>
+        <v>52450</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>김태현 아시아마트 _H</t>
+          <t>SARAWUT _T</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1186800</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>나나 _R</t>
+          <t>Sanea Tamo _F</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1420800</v>
+        <v>168600</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>나파랏 _T</t>
+          <t>Sarocha Ph _T</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>801250</v>
+        <v>77900</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>낫차리 직접배 _F</t>
+          <t>Sawitree _T</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>4582950</v>
+        <v>168800</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>니타야 _T</t>
+          <t>Sirirat _F</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>154100</v>
+        <v>650100</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>다진타이마트 _F</t>
+          <t>Sudarat20043</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>220000</v>
+        <v>65250</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>더방콕 _R</t>
+          <t>Suphatsara Saensuk</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>496700</v>
+        <v>104100</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>동남아시아식품 _F</t>
+          <t>Surakarn _F</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>170200</v>
+        <v>19300</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>땀 _T</t>
+          <t>Sutin Se _T</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>515200</v>
+        <v>33900</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>땡능 _F</t>
+          <t>Sutthita _F</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2743100</v>
+        <v>891400</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>띵동마트 _R</t>
+          <t>TUEKRUEA ARUNEE _F</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>303900</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>람빵마트 _R</t>
+          <t>TUEKRUEA ARUNEE _N</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>168000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>랍땅아시아마트 _F</t>
+          <t>Toey _T</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>130000</v>
+        <v>224800</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>레누 _F</t>
+          <t>Venus _F</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>330000</v>
+        <v>90200</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>룽태국마트 _R</t>
+          <t>WIKANDA _F</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>3121000</v>
+        <v>1543500</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>마하차이 _H</t>
+          <t>Wadsana Karin _T</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1916600</v>
+        <v>220800</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>말리 아시아마트 _F</t>
+          <t>Wanida _F</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>62000</v>
+        <v>299000</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>민투앙폰 _T</t>
+          <t>YOK KUNG _F</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1285000</v>
+        <v>542800</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>박준식_타이타이 _T</t>
+          <t>Yaowalak _R</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>569700</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>방방콕콕 _H</t>
+          <t>Yu _F</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>208400</v>
+        <v>2133500</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>사바이 _R</t>
+          <t>fang _F</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>646800</v>
+        <v>157150</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>서진푸드 _F</t>
+          <t>justfortha 저스트폴타이 _H</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2541700</v>
+        <v>611650</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>슈퍼맨 _H</t>
+          <t>kittiya _F</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>511700</v>
+        <v>1269200</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>스마일식당 _H</t>
+          <t>lina _F</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1090750</v>
+        <v>199200</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>시리락 _R</t>
+          <t>mina _F</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>755500</v>
+        <v>1168200</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>싸와락타이마트 _F</t>
+          <t>monckin th _T</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>331600</v>
+        <v>302700</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>씨암타이 태국식당 _T</t>
+          <t>party _F</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>565900</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>안니 _T</t>
+          <t>phuthai _T</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>57000</v>
+        <v>701700</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>우진축산 _F</t>
+          <t>sinsin _R</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>655600</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>유기정 _H</t>
+          <t>tiw _T</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>115200</v>
+        <v>116500</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>유파 _F</t>
+          <t>wikky ma _F</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>196500</v>
+        <v>125800</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>윤윤경 _R</t>
+          <t>กิตตยา ลุนโท _N</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>220800</v>
+        <v>102100</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>이규방 _R</t>
+          <t>พัชรา _T</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4298000</v>
+        <v>121600</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>이상본 _R</t>
+          <t>강춘식 _H</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>242000</v>
+        <v>287900</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>이상준 _F</t>
+          <t>김성식 _T</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>61600</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>이재원 _T</t>
+          <t>김완섭 _F</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>152000</v>
+        <v>346000</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>이하연 _F</t>
+          <t>김태현 아시아마트 _H</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>104000</v>
+        <v>1532900</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>이현진 _H</t>
+          <t>나나 _R</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1665200</v>
+        <v>1420800</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>임엠 태국음식점 _R</t>
+          <t>나파랏 _T</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>357500</v>
+        <v>801250</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>정현수 _T</t>
+          <t>낫차리 직접배 _F</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>237700</v>
+        <v>4702350</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>짜오파야 _F</t>
+          <t>니타야 _T</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>116000</v>
+        <v>154100</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>초티카 _R</t>
+          <t>다진타이마트 _F</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>120400</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>최미소 _F</t>
+          <t>더방콕 _R</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>379700</v>
+        <v>496700</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>카오산대구 _F</t>
+          <t>동남아시아식품 _F</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>406900</v>
+        <v>170200</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>케이쏨차이 _H</t>
+          <t>땀 _T</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>95200</v>
+        <v>515200</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>케이쏨차이 _R</t>
+          <t>땡능 _F</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>129200</v>
+        <v>2743100</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>타나파 _T</t>
+          <t>띵동마트 _R</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>31000</v>
+        <v>303900</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>타이룽르앙 _T</t>
+          <t>람빵마트 _R</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1178500</v>
+        <v>168000</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>탕탕돈까스 _R</t>
+          <t>랍땅아시아마트 _F</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>57000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>태국마트광혜원 _H</t>
+          <t>레누 _F</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>415800</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>태국슈퍼 _T</t>
+          <t>룽태국마트 _R</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1287900</v>
+        <v>3121000</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>태국식당 _R</t>
+          <t>마하차이 _H</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>4688200</v>
+        <v>1968400</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>테이스트타일랜드 _T</t>
+          <t>말리 아시아마트 _F</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>328000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>팟 타이 랜드 _R</t>
+          <t>민투앙폰 _T</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>297800</v>
+        <v>1285000</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>포니케이크 _T</t>
+          <t>박준식_타이타이 _T</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>111800</v>
+        <v>569700</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>한한 _R</t>
+          <t>방방콕콕 _H</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3333700</v>
+        <v>208400</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
+          <t>사바이 _R</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>646800</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>서진푸드 _F</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>2541700</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>슈퍼맨 _H</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>511700</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>스마일식당 _H</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1090750</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>시리락 _R</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>885300</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>싸와락타이마트 _F</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>331600</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>씨암타이 태국식당 _T</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>824900</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>안니 _T</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>엄지마트_H</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>-63200</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>온크랩래카놈타이 _N</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>245200</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>우진축산 _F</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>975200</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>유기정 _H</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>115200</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>유파 _F</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>196500</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>윤윤경 _R</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>220800</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>이규방 _R</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>4298000</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>이상본 _R</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>242000</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>이상준 _F</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>이재원 _T</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>152000</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>이하연 _F</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>이현진 _H</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1665200</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>임엠 태국음식점 _R</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>357500</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>정현수 _T</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>237700</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>짜오파야 _F</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>116000</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>초티카 _R</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>120400</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>최미소 _F</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>379700</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>카오산대구 _F</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>406900</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>케이쏨차이 _H</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>129200</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>케이쏨차이 _R</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>129200</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>타나파 _T</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>타이룽르앙 _T</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1178500</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>탕탕돈까스 _R</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>태국마트광혜원 _H</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>415800</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>태국슈퍼 _T</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1287900</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>태국식당 _R</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>4688200</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>테이스트타일랜드 _T</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>328000</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>팟 타이 랜드 _R</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>297800</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>포니케이크 _T</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>111800</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>한한 _R</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>3333700</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
           <t>홍성용 _T</t>
         </is>
       </c>
-      <c r="B235" t="n">
+      <c r="B273" t="n">
         <v>386600</v>
       </c>
     </row>
